--- a/Test Design Specifications/Edit_nanny_profile_TDS.xlsx
+++ b/Test Design Specifications/Edit_nanny_profile_TDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>Test Design Specification Identifier</t>
   </si>
@@ -49,18 +49,9 @@
     <t>negative</t>
   </si>
   <si>
-    <t>to test</t>
-  </si>
-  <si>
     <t>Pop-up message field appears saying that the corresponding field must be filled with valid information in order to proceed</t>
   </si>
   <si>
-    <t>Testing by filling just one field with invalid information</t>
-  </si>
-  <si>
-    <t>Try with all fields</t>
-  </si>
-  <si>
     <t>Error saying please enter valid "field name" appears</t>
   </si>
   <si>
@@ -131,6 +122,153 @@
   </si>
   <si>
     <t>Error saying that the motivation field must be between 20 and 255 symbols  inclusive</t>
+  </si>
+  <si>
+    <t>PE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the image field with  image with size more than 1 mb </t>
+  </si>
+  <si>
+    <t>Successful update</t>
+  </si>
+  <si>
+    <t>SU_1</t>
+  </si>
+  <si>
+    <t>SU_2</t>
+  </si>
+  <si>
+    <t>SU_3</t>
+  </si>
+  <si>
+    <t>SU_4</t>
+  </si>
+  <si>
+    <t>SU_5</t>
+  </si>
+  <si>
+    <t>SU_6</t>
+  </si>
+  <si>
+    <t>Error message should appear</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>The password should be changed in the data base</t>
+  </si>
+  <si>
+    <t>SU_7</t>
+  </si>
+  <si>
+    <t>SU_8</t>
+  </si>
+  <si>
+    <t>SU_9</t>
+  </si>
+  <si>
+    <t>SU_10</t>
+  </si>
+  <si>
+    <t>SU_11</t>
+  </si>
+  <si>
+    <t>SU_12</t>
+  </si>
+  <si>
+    <t>Test it with more then one valid field</t>
+  </si>
+  <si>
+    <t>The image in the profile page is changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid address </t>
+  </si>
+  <si>
+    <t>The address in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Enter valid telephone</t>
+  </si>
+  <si>
+    <t>The telephone in the profile page is changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid motivation </t>
+  </si>
+  <si>
+    <t>The motivation in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Enter valid password to change your current password</t>
+  </si>
+  <si>
+    <t>The user should log in with the new password</t>
+  </si>
+  <si>
+    <t>Update with different City</t>
+  </si>
+  <si>
+    <t>The city in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Update with different work status</t>
+  </si>
+  <si>
+    <t>The work status in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Update with different education</t>
+  </si>
+  <si>
+    <t>The education  in the profile page is changed</t>
+  </si>
+  <si>
+    <t>Update with different availability to work  away</t>
+  </si>
+  <si>
+    <t>The availability to work away in the profile page is changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information is changed in the profile page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-up error message should appear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid first name </t>
+  </si>
+  <si>
+    <t>The first name in the profile page is changed</t>
+  </si>
+  <si>
+    <t>The last name in the profile page is changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid last name </t>
+  </si>
+  <si>
+    <t>Submit with all fields empty</t>
+  </si>
+  <si>
+    <t>Nothing in the profile page is changed</t>
+  </si>
+  <si>
+    <t>PE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the image field with  files with not allowed file extentions </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Update with different valid image file</t>
   </si>
 </sst>
 </file>
@@ -146,12 +284,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,9 +316,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +651,7 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -530,180 +692,492 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Design Specifications/Edit_nanny_profile_TDS.xlsx
+++ b/Test Design Specifications/Edit_nanny_profile_TDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>Test Design Specification Identifier</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test the image field with  files with not allowed file extentions </t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>pass</t>
@@ -284,18 +281,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -328,9 +319,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,8 +722,8 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>83</v>
+      <c r="H4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -754,8 +742,8 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>83</v>
+      <c r="H5" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -774,8 +762,8 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>83</v>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -794,8 +782,8 @@
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>83</v>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -814,8 +802,8 @@
       <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -834,8 +822,8 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>83</v>
+      <c r="H9" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -854,8 +842,8 @@
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>83</v>
+      <c r="H10" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -877,8 +865,8 @@
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>83</v>
+      <c r="H11" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,8 +935,8 @@
       <c r="G15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>83</v>
+      <c r="H15" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,8 +959,8 @@
       <c r="G16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>83</v>
+      <c r="H16" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,8 +983,8 @@
       <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>83</v>
+      <c r="H17" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,8 +1007,8 @@
       <c r="G18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>83</v>
+      <c r="H18" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,8 +1031,8 @@
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>83</v>
+      <c r="H19" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,8 +1055,8 @@
       <c r="G20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>83</v>
+      <c r="H20" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,8 +1072,8 @@
       <c r="G21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>83</v>
+      <c r="H21" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,8 +1089,8 @@
       <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>83</v>
+      <c r="H22" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,8 +1106,8 @@
       <c r="G23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>83</v>
+      <c r="H23" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,8 +1123,8 @@
       <c r="G24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>83</v>
+      <c r="H24" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1132,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>55</v>
@@ -1152,8 +1140,8 @@
       <c r="G25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>83</v>
+      <c r="H25" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,8 +1160,8 @@
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>83</v>
+      <c r="H26" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
